--- a/Data/Bank_churn/Images/DTree_ValidationCurve_MaxDepth.xlsx
+++ b/Data/Bank_churn/Images/DTree_ValidationCurve_MaxDepth.xlsx
@@ -471,10 +471,10 @@
         <v>0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,13 +499,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C4" t="n">
         <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -516,16 +516,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C5" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="C6" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bank_churn/Images/DTree_ValidationCurve_MaxDepth.xlsx
+++ b/Data/Bank_churn/Images/DTree_ValidationCurve_MaxDepth.xlsx
@@ -491,7 +491,7 @@
         <v>0.03</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0.03</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
